--- a/GLM/glm summary 9-17-2014.xlsx
+++ b/GLM/glm summary 9-17-2014.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="176">
   <si>
     <t>Estimate</t>
   </si>
@@ -1349,6 +1349,12 @@
   </si>
   <si>
     <t>Floating plant presence</t>
+  </si>
+  <si>
+    <t>"Best" Model (lowest AICc)</t>
+  </si>
+  <si>
+    <t>Model Average (delta AICc &lt;2)</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1366,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1538,6 +1544,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1923,7 +1936,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2025,23 +2038,24 @@
     <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2928,7 +2942,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3293,8 +3307,8 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A40"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3456,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:A83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6186,19 +6200,19 @@
       <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="52" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6209,11 +6223,11 @@
       <c r="B2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
@@ -6321,19 +6335,19 @@
         <v>19</v>
       </c>
       <c r="B8" s="26"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="52" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6344,11 +6358,11 @@
       <c r="B9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
@@ -6456,19 +6470,19 @@
         <v>149</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="52" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6479,11 +6493,11 @@
       <c r="B16" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
@@ -6591,19 +6605,19 @@
         <v>150</v>
       </c>
       <c r="B22" s="24"/>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="52" t="s">
         <v>97</v>
       </c>
       <c r="I22"/>
@@ -6630,11 +6644,11 @@
       <c r="B23" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
@@ -6742,19 +6756,19 @@
         <v>151</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="52" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6765,11 +6779,11 @@
       <c r="B30" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
@@ -6910,31 +6924,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
@@ -7030,10 +7044,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7041,217 +7055,417 @@
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" s="52" t="s">
+      <c r="F3" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="52"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51" t="s">
+      <c r="D4" s="54"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D5" s="49" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B6" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C6" s="50">
         <v>104</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D6" s="50">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="51" t="s">
+      <c r="F6" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="50">
+        <v>105</v>
+      </c>
+      <c r="I6" s="50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C7" s="50">
         <v>14</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D7" s="50">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="50">
+        <v>13</v>
+      </c>
+      <c r="I7" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="52" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="52"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51" t="s">
+      <c r="D10" s="54"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D11" s="49" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B12" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C12" s="50">
         <v>143</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D12" s="50">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51" t="s">
+      <c r="F12" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="50">
+        <v>143</v>
+      </c>
+      <c r="I12" s="50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C13" s="50">
         <v>0</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D13" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="50">
+        <v>0</v>
+      </c>
+      <c r="I13" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="52" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="F15" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="C15" s="51" t="s">
+      <c r="D16" s="54"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="C17" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D17" s="49" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B18" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C18" s="50">
         <v>150</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D18" s="50">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="51" t="s">
+      <c r="F18" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="50">
+        <v>150</v>
+      </c>
+      <c r="I18" s="50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C19" s="50">
         <v>1</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D19" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="F19" s="55"/>
+      <c r="G19" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="50">
+        <v>1</v>
+      </c>
+      <c r="I19" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="52" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="F21" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="52"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="51" t="s">
+      <c r="D22" s="54"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D23" s="49" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B24" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C24" s="50">
         <v>82</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D24" s="50">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="51" t="s">
+      <c r="F24" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="50">
+        <v>83</v>
+      </c>
+      <c r="I24" s="50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="55"/>
+      <c r="B25" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C25" s="50">
         <v>20</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D25" s="50">
         <v>49</v>
       </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="50">
+        <v>19</v>
+      </c>
+      <c r="I25" s="50">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="16">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
